--- a/Energy/frac_scoe_heat_energy_other_se_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
+++ b/Energy/frac_scoe_heat_energy_other_se_coal/row_data/frac_scoe_heat_energy_proportion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe/datos/frac_scoe_heat_energy_other_se_coal/row_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/frac_scoe_heat_energy_other_se_coal/row_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FBF96-7ABC-CF47-8BBD-E6D337FD7B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E512F-548E-014C-8FBE-5D76EE3C0788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="16000" xr2:uid="{D7C197B3-7EB3-6A45-82A0-56F0419D22C9}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>frac_scoe_heat_energy_other_se_electricity</t>
   </si>
   <si>
-    <t>frac_scoe_heat_energy_other_se_gas_petroleum_liquid</t>
-  </si>
-  <si>
     <t>frac_scoe_heat_energy_other_se_gasoline</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>frac_scoe_heat_energy_other_se_solid_biomass</t>
+  </si>
+  <si>
+    <t>frac_scoe_heat_energy_other_se_hydrocarbon_gas_liquids</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.1</v>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
